--- a/output/fit_clients/fit_round_314.xlsx
+++ b/output/fit_clients/fit_round_314.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1651607283.076891</v>
+        <v>1599940732.165907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1081188447516656</v>
+        <v>0.09115587359000618</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02996326977816399</v>
+        <v>0.03824757273767512</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>825803590.3095629</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2459886922.589206</v>
+        <v>2534150403.828554</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1110145467498105</v>
+        <v>0.1145824311361483</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03689975376019505</v>
+        <v>0.04304049084541066</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1229943572.582219</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4347615285.533828</v>
+        <v>3859006693.913883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1521223577324633</v>
+        <v>0.1463582729280137</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03035305711289664</v>
+        <v>0.02870383345440875</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>113</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2173807681.586011</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4248469971.129247</v>
+        <v>3500652035.756923</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07942459414631797</v>
+        <v>0.085473104824456</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03655841031980787</v>
+        <v>0.0347833914921543</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2124234972.854166</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1780803449.442826</v>
+        <v>2615326691.824349</v>
       </c>
       <c r="F6" t="n">
-        <v>0.092672993804225</v>
+        <v>0.125440709723411</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03884805446200344</v>
+        <v>0.04128895013119688</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>890401778.0406603</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2471113993.081427</v>
+        <v>2052539145.550167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07765216061054871</v>
+        <v>0.1008474916967435</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03453012700511075</v>
+        <v>0.03178614972344004</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1235557012.357431</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3853561714.974655</v>
+        <v>2442533004.184985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.141291538167981</v>
+        <v>0.1431205651021517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02661854524331306</v>
+        <v>0.02815892479591726</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1926781002.259717</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1653620557.341664</v>
+        <v>1840085984.037089</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1620400510098152</v>
+        <v>0.1928819814968918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02682491236153971</v>
+        <v>0.02896999072098241</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>826810353.3424091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4272224907.347444</v>
+        <v>4673148170.145553</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2075484373202119</v>
+        <v>0.1365784240460134</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03657774414868104</v>
+        <v>0.0334470128616178</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>132</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2136112496.627131</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4070162721.867669</v>
+        <v>2905681913.287445</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1766245427351331</v>
+        <v>0.1482354605372902</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04459997981617213</v>
+        <v>0.03998073247687588</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>130</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2035081378.475902</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2280001072.142216</v>
+        <v>2581127953.917275</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1199870464670519</v>
+        <v>0.1383915046880331</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05173060909025283</v>
+        <v>0.0455927746880567</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>107</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1140000488.165019</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3529754514.306189</v>
+        <v>4745700229.018577</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08616177107224628</v>
+        <v>0.09519025853248773</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02348617228713818</v>
+        <v>0.02630430568057333</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>105</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1764877335.964898</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3453024959.209606</v>
+        <v>2477773669.868526</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1719907319267716</v>
+        <v>0.1864543421674538</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03155383898921993</v>
+        <v>0.03743511027741332</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1726512481.244741</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1254436146.104155</v>
+        <v>1761567061.986992</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1005307687473861</v>
+        <v>0.06834599097242074</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0359785381891559</v>
+        <v>0.03287059210323633</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>627218102.8792055</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1806041786.887833</v>
+        <v>2105939894.169924</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1110447734723932</v>
+        <v>0.1044249719831837</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04769721281781378</v>
+        <v>0.04055262097664578</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>61</v>
-      </c>
-      <c r="J16" t="n">
-        <v>903020986.2621299</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4273614336.304932</v>
+        <v>4999580976.235133</v>
       </c>
       <c r="F17" t="n">
-        <v>0.160505229063352</v>
+        <v>0.1624051482865932</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03804375477888122</v>
+        <v>0.0481854853757844</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>92</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2136807189.186003</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3351320402.997231</v>
+        <v>3705751994.876746</v>
       </c>
       <c r="F18" t="n">
-        <v>0.167508170972133</v>
+        <v>0.1178810875227102</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02699064173260478</v>
+        <v>0.02769455523525732</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>103</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1675660206.32698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>988190004.2944106</v>
+        <v>1184296255.305341</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1414969774796608</v>
+        <v>0.1607448126719724</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02558499985842723</v>
+        <v>0.02548571127113087</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>494095028.518792</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1861784388.985334</v>
+        <v>2032851307.08184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.12206442380605</v>
+        <v>0.1099089920623729</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03116412941813815</v>
+        <v>0.0305742615319922</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>930892235.571923</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2318727949.50658</v>
+        <v>2118456488.809068</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07484145825351557</v>
+        <v>0.08154757144191474</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03914406496874138</v>
+        <v>0.04460371152253756</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1159363980.19586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3290102532.938533</v>
+        <v>3487433512.145514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1088433646725718</v>
+        <v>0.1445601826730675</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05073878530096464</v>
+        <v>0.0407716322099879</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1645051310.633567</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1319158084.218143</v>
+        <v>1366989019.303233</v>
       </c>
       <c r="F23" t="n">
-        <v>0.173651959749842</v>
+        <v>0.1355964271039892</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04243487678098711</v>
+        <v>0.04122253630746975</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>659579058.5393498</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3796742530.44113</v>
+        <v>3354461563.74137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1204421831407982</v>
+        <v>0.1279269883758233</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03558968679646581</v>
+        <v>0.0333263949429518</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>91</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1898371246.890782</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>947204050.7202232</v>
+        <v>1289601547.032387</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1032270199303376</v>
+        <v>0.07615851908614189</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02778566280289744</v>
+        <v>0.02953005464644337</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>473602101.5145885</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1091256520.727446</v>
+        <v>1399500133.17868</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1208666289854071</v>
+        <v>0.08215739838879098</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03318910177341208</v>
+        <v>0.03129740078947147</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>545628254.757383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4143970642.960474</v>
+        <v>3215692539.818451</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1262351307239663</v>
+        <v>0.1196385106028029</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0246522338251477</v>
+        <v>0.0253576863485353</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>79</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2071985324.471025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3106029389.735062</v>
+        <v>3750672614.720869</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1306800429956188</v>
+        <v>0.1522558092920023</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03030991818270511</v>
+        <v>0.03814327892533596</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>101</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1553014715.302236</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5756182162.918622</v>
+        <v>3727645849.791737</v>
       </c>
       <c r="F29" t="n">
-        <v>0.134478349934598</v>
+        <v>0.1114872434062623</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03565713405339606</v>
+        <v>0.03474520541990486</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>138</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2878090976.609919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2106337229.42291</v>
+        <v>1649356490.14588</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1389295145667831</v>
+        <v>0.09231637717804815</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03812870008559458</v>
+        <v>0.02989646132035216</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1053168664.258342</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1140415184.775056</v>
+        <v>1111537485.32548</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08004938522603243</v>
+        <v>0.0865882426828858</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05239991945696292</v>
+        <v>0.04339668852284477</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>570207557.8702606</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1147584350.25556</v>
+        <v>1815074745.666184</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1123232851349502</v>
+        <v>0.1121781632685531</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02928763371253404</v>
+        <v>0.02986658362370832</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>573792170.4995826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2168359734.970361</v>
+        <v>2924901120.139741</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1417005674001502</v>
+        <v>0.1345052915962538</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0444210434890288</v>
+        <v>0.04397801346049635</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>93</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1084179933.942057</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1345937363.200441</v>
+        <v>1210763114.647867</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1050984399178907</v>
+        <v>0.08433324050060066</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02634216689406844</v>
+        <v>0.01876267267174529</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>672968662.7084533</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1264174266.095304</v>
+        <v>1285595986.232313</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08862793189252122</v>
+        <v>0.08816694931119406</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02784499733868146</v>
+        <v>0.02737440266508533</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>632087093.6943951</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2362014958.151627</v>
+        <v>2319176336.226878</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1502022481878523</v>
+        <v>0.1315127630419498</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01975087867520564</v>
+        <v>0.02224889355079352</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1181007512.112392</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1988440253.982344</v>
+        <v>1955156893.861495</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07489788396210914</v>
+        <v>0.06788419861014623</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03974907020434085</v>
+        <v>0.03195226829134014</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>994220152.6808339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1937689102.776742</v>
+        <v>1511338601.593449</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1053759870506905</v>
+        <v>0.08256774198203991</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02625543160724908</v>
+        <v>0.02585952334385876</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>968844538.817616</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2216717055.341181</v>
+        <v>2205171926.522756</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1204794356847701</v>
+        <v>0.1234658586760174</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02414757683398419</v>
+        <v>0.02208450279905364</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1108358489.305334</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1350973684.107515</v>
+        <v>1669822545.001406</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1306281593751033</v>
+        <v>0.1308481582749528</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05547607710570999</v>
+        <v>0.04811401516338541</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>675486845.5665022</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2765366385.990543</v>
+        <v>2129241583.196368</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1268530699348453</v>
+        <v>0.1319289095467998</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04629198600715779</v>
+        <v>0.02872703789373484</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>78</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1382683192.301234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4131747242.331697</v>
+        <v>3658366196.756279</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1182533282745432</v>
+        <v>0.08774479150408608</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03380912354723756</v>
+        <v>0.03290881362567481</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2065873659.534496</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1964892016.832881</v>
+        <v>2291382182.512955</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1989416487967068</v>
+        <v>0.176443828405772</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01575737810212342</v>
+        <v>0.01926395404338405</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>113</v>
-      </c>
-      <c r="J43" t="n">
-        <v>982446110.8976068</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2077536901.102887</v>
+        <v>2181867633.259123</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07150476241470069</v>
+        <v>0.06728632091875053</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02787193359638894</v>
+        <v>0.02655250049580222</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1038768572.36138</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2239374170.872301</v>
+        <v>1682726087.324189</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1917999810658401</v>
+        <v>0.1612091184323361</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04977185135148748</v>
+        <v>0.04942863690615724</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1119687100.467231</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4985662797.62089</v>
+        <v>3862262499.248992</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1518483800889917</v>
+        <v>0.1602744628962255</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03839817080261133</v>
+        <v>0.05740843793882198</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>111</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2492831424.777157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4416049370.087754</v>
+        <v>4010747073.299709</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1389974931403561</v>
+        <v>0.1583188598553866</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0453242218129923</v>
+        <v>0.04409437281340745</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>84</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2208024707.735749</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2867100624.396208</v>
+        <v>4649806727.337084</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08703990271472593</v>
+        <v>0.1059824287593694</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02433552115473609</v>
+        <v>0.0348113965843514</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1433550412.445039</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1286111612.384601</v>
+        <v>1534217574.601583</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1841256535793911</v>
+        <v>0.164980995575167</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03715655184013128</v>
+        <v>0.04118717645940608</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>643055871.4674958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3316930611.458227</v>
+        <v>3077624789.031985</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1566354587334904</v>
+        <v>0.1095535421708575</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03551236006579434</v>
+        <v>0.04330201623376959</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>107</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1658465343.008589</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1440394065.443553</v>
+        <v>1218972077.466395</v>
       </c>
       <c r="F51" t="n">
-        <v>0.146010994533925</v>
+        <v>0.1646461375570308</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04430410088336015</v>
+        <v>0.04749006140121673</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>720197045.3180382</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3394294920.052945</v>
+        <v>4678904890.696483</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1342117191751051</v>
+        <v>0.08480716008203899</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05992180800307745</v>
+        <v>0.06102298153130171</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>129</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1697147552.156138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2955041874.26579</v>
+        <v>2581400430.272104</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1537855386418023</v>
+        <v>0.196311758788026</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02294648850324723</v>
+        <v>0.03138598187974808</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1477520972.703594</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3978221760.907362</v>
+        <v>3189662077.165376</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1643998107054776</v>
+        <v>0.1438567751732129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05155254638920232</v>
+        <v>0.03491767501291162</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1989110942.81705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3475440276.48911</v>
+        <v>4733999996.532452</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1371595041149651</v>
+        <v>0.1798014287795708</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02908201521358446</v>
+        <v>0.02046927711122148</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1737720090.033863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1140221858.602524</v>
+        <v>1253132672.814593</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1088396907006908</v>
+        <v>0.1157714789192714</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03718169858961174</v>
+        <v>0.03702905612327253</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>570111024.870605</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4416557870.171288</v>
+        <v>3069605613.858097</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1741424032704766</v>
+        <v>0.1557083335622838</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02091011311927986</v>
+        <v>0.02104669402666246</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>99</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2208279058.433324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1259626841.263688</v>
+        <v>1555092275.094081</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1940211013846877</v>
+        <v>0.1548848093313199</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03060314861112882</v>
+        <v>0.03103964405501768</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>629813473.7194041</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4279405284.937371</v>
+        <v>4721565358.352394</v>
       </c>
       <c r="F59" t="n">
-        <v>0.122344760293324</v>
+        <v>0.1228489573414009</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04234980176524569</v>
+        <v>0.04455862251753219</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2139702604.946741</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3351084351.529868</v>
+        <v>3097823104.038176</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1645856466158673</v>
+        <v>0.1543662612678951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02974279248329757</v>
+        <v>0.03063242274239861</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>100</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1675542282.94611</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2977912596.130329</v>
+        <v>3056934990.529539</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1211591579485961</v>
+        <v>0.1386193160550377</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02787963543575416</v>
+        <v>0.03118532702531934</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>108</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1488956280.623141</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1366112727.144982</v>
+        <v>1607960516.109211</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1511726088550715</v>
+        <v>0.1383561905321403</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04285651241995963</v>
+        <v>0.0409089396981271</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>683056326.5445164</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4872220514.264109</v>
+        <v>4385591301.660094</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09252003370285863</v>
+        <v>0.06944525768029018</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04212175971173243</v>
+        <v>0.03333288199607618</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2436110280.621461</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4911746372.828553</v>
+        <v>4831357275.13316</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1849469121640579</v>
+        <v>0.1553932885378113</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03555061554935803</v>
+        <v>0.02837373263508333</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>97</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2455873286.41313</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3856297285.331064</v>
+        <v>5549569645.763946</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1135149307747073</v>
+        <v>0.1680960671275857</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03009691887227514</v>
+        <v>0.02549911229810037</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>113</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1928148669.830594</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3445808363.144789</v>
+        <v>4191909164.757913</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1078551387875871</v>
+        <v>0.1269699651917442</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05076274412781218</v>
+        <v>0.05026142884588759</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>91</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1722904125.500768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2291759609.022136</v>
+        <v>3424217741.319008</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06385084747814639</v>
+        <v>0.09234817433867688</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04992725370482894</v>
+        <v>0.03959896215288376</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>101</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1145879882.774783</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4920924895.719003</v>
+        <v>3838368700.810448</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1490073376878694</v>
+        <v>0.102678481146902</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03258882539127819</v>
+        <v>0.03289044834826709</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>104</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2460462499.459864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1668792853.769696</v>
+        <v>1892236857.374275</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1783699995119042</v>
+        <v>0.1743824089999533</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05293336760241208</v>
+        <v>0.04850686474078632</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>834396388.9975942</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3693104198.945833</v>
+        <v>2993984828.616006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06946532156367345</v>
+        <v>0.07688065423107029</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04653280770889122</v>
+        <v>0.03337296750890309</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>89</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1846552121.531446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5434087693.558323</v>
+        <v>5239757172.0259</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1239286170072746</v>
+        <v>0.1388673051774038</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02770357899571085</v>
+        <v>0.03034512505833677</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>114</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2717043984.896693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1887623521.740765</v>
+        <v>1922438164.844838</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09587652406110737</v>
+        <v>0.07170940112322087</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04489415370874204</v>
+        <v>0.04524931029298847</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>943811725.3600662</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2571157515.974939</v>
+        <v>3512594287.340726</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06832173139127853</v>
+        <v>0.1107237531307128</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03869196880703365</v>
+        <v>0.03369380564628884</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>119</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1285578793.243313</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3921434878.790774</v>
+        <v>2429767903.62998</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1228759991937891</v>
+        <v>0.12234708037139</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02485904747027767</v>
+        <v>0.0315392741344494</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>106</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1960717425.105072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1512574748.541183</v>
+        <v>1659222524.913977</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1309754310578032</v>
+        <v>0.1081016617840091</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0236372748531544</v>
+        <v>0.0329476721581479</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>756287384.2170621</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4019903301.663058</v>
+        <v>3308016455.635121</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1236412396363199</v>
+        <v>0.09014572036489674</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0322582459764392</v>
+        <v>0.02926719447599203</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2009951636.412069</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1507258161.222133</v>
+        <v>1798548618.917053</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1790300389756734</v>
+        <v>0.1694305238511073</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02080009397338876</v>
+        <v>0.0250454590600352</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>753629069.3324598</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3079199786.520508</v>
+        <v>4503581255.65057</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1137809542530491</v>
+        <v>0.08746724309273163</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05170367974077263</v>
+        <v>0.03917009304630921</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>109</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1539599924.886339</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1641302052.747423</v>
+        <v>1740607992.236335</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1769096538358524</v>
+        <v>0.1645259753707599</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03681315121043236</v>
+        <v>0.02844140150952681</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>820651085.3204763</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4756814792.33923</v>
+        <v>5098059692.975733</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06937359360208606</v>
+        <v>0.093445387635102</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02639756317035974</v>
+        <v>0.02539736524500854</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>65</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2378407433.272147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3776821723.57147</v>
+        <v>4550738614.485253</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08696350679760978</v>
+        <v>0.0848549408968734</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0266144125415612</v>
+        <v>0.02921689943716091</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1888410816.722558</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5211920218.037867</v>
+        <v>5672146862.845822</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2138259157120316</v>
+        <v>0.1660362278166612</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01815546469243712</v>
+        <v>0.02722696240499977</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>111</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2605960081.143302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1723244699.22953</v>
+        <v>1909383211.855526</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1139170631405037</v>
+        <v>0.1036195427667072</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04330034997725805</v>
+        <v>0.03019913636081494</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>861622300.4482726</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2599878764.783332</v>
+        <v>2467393651.919437</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1027111128120092</v>
+        <v>0.1101112366249938</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03201411818345773</v>
+        <v>0.03398366972073251</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1299939299.53816</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3588945920.327014</v>
+        <v>2267214587.677338</v>
       </c>
       <c r="F85" t="n">
-        <v>0.151224224466732</v>
+        <v>0.1303186917459866</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04145241908267629</v>
+        <v>0.03679407341081041</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>118</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1794473085.339361</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1965104052.315026</v>
+        <v>2352184737.245014</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1046541421181973</v>
+        <v>0.1450475179767192</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02144526153411488</v>
+        <v>0.02053069880310698</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>43</v>
-      </c>
-      <c r="J86" t="n">
-        <v>982552048.9397496</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1304052983.088099</v>
+        <v>1110054442.418727</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1688331873451081</v>
+        <v>0.1868552632306361</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02874958859624075</v>
+        <v>0.03549882325799594</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>652026573.8033438</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2706536343.46784</v>
+        <v>2533902234.729221</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1310838145768289</v>
+        <v>0.168735712526081</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0361018881483503</v>
+        <v>0.03592056569738124</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>125</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1353268173.173684</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2349556992.047795</v>
+        <v>3462355438.762393</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1130261028963965</v>
+        <v>0.14519091072569</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03583198708296222</v>
+        <v>0.02730793926294403</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>106</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1174778581.82808</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2093959320.52187</v>
+        <v>1726683062.832228</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1225944273963114</v>
+        <v>0.1286181732326525</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05030808891396428</v>
+        <v>0.0524461679031997</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1046979747.679526</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1918356072.669182</v>
+        <v>1722626043.716921</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1652636174357297</v>
+        <v>0.1835563806474975</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05902044331968109</v>
+        <v>0.05253730204520917</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>959178019.4887232</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2123198711.583394</v>
+        <v>2273330644.925097</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08275392101730146</v>
+        <v>0.08283578411845995</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03543419348607464</v>
+        <v>0.03595549869183403</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>82</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1061599311.272395</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4451829443.420261</v>
+        <v>4012378883.707715</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09687277271390883</v>
+        <v>0.123575331807258</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0514801711320437</v>
+        <v>0.05231031682388621</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>94</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2225914693.129838</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1530815691.424517</v>
+        <v>2442301102.120229</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1485708784799485</v>
+        <v>0.1513824887375198</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03174849406678235</v>
+        <v>0.027962671414247</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>765407782.9680864</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2816725136.337668</v>
+        <v>2442009407.017723</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1365437069993277</v>
+        <v>0.1329710700899257</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0449706077807052</v>
+        <v>0.03670518564734436</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1408362581.234941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1744313686.827952</v>
+        <v>1736535550.882168</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1398537974311383</v>
+        <v>0.1101114088340675</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03166800738997296</v>
+        <v>0.03072523000537349</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>872156857.6824275</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4910598844.896949</v>
+        <v>5115362938.468846</v>
       </c>
       <c r="F97" t="n">
-        <v>0.146460612274479</v>
+        <v>0.1746720108944626</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02470042957523427</v>
+        <v>0.0219931210337901</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2455299552.057887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3289943096.490417</v>
+        <v>3699874373.133815</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08747332716769365</v>
+        <v>0.1042460092981182</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02043436266452672</v>
+        <v>0.02984926808037302</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1644971552.636758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3311571946.166097</v>
+        <v>3068546981.474224</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1466037796114745</v>
+        <v>0.105458466424175</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02443223385542441</v>
+        <v>0.02178438821331181</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1655785981.616545</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3418464826.621599</v>
+        <v>4728658280.024848</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1105396781836534</v>
+        <v>0.1429420476243165</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01838202404560403</v>
+        <v>0.02712718371353815</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1709232437.571252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3000644083.890048</v>
+        <v>3323142280.197676</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2005875693131926</v>
+        <v>0.2084144411540046</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04131599773003929</v>
+        <v>0.04300986869027647</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>125</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1500322131.065629</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_314.xlsx
+++ b/output/fit_clients/fit_round_314.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1599940732.165907</v>
+        <v>2299491276.148105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09115587359000618</v>
+        <v>0.09252853953346163</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03824757273767512</v>
+        <v>0.03953281587307365</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2534150403.828554</v>
+        <v>1591639843.970962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1145824311361483</v>
+        <v>0.1455725174152872</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04304049084541066</v>
+        <v>0.0365559455475835</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3859006693.913883</v>
+        <v>3785692001.530878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1463582729280137</v>
+        <v>0.1356280829788759</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02870383345440875</v>
+        <v>0.03287776140925771</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3500652035.756923</v>
+        <v>3606760011.208869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.085473104824456</v>
+        <v>0.09446889355592483</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0347833914921543</v>
+        <v>0.04383633406171539</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2615326691.824349</v>
+        <v>2476698797.837715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.125440709723411</v>
+        <v>0.1268682711162649</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04128895013119688</v>
+        <v>0.05270398299495586</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2052539145.550167</v>
+        <v>2411238905.741305</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1008474916967435</v>
+        <v>0.09493527483377041</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03178614972344004</v>
+        <v>0.032509887330411</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2442533004.184985</v>
+        <v>2960675466.349453</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1431205651021517</v>
+        <v>0.2215013071517674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02815892479591726</v>
+        <v>0.02446298649014587</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1840085984.037089</v>
+        <v>1392450829.649791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1928819814968918</v>
+        <v>0.1766241590602817</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02896999072098241</v>
+        <v>0.02602479884862325</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4673148170.145553</v>
+        <v>5554520126.891264</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1365784240460134</v>
+        <v>0.1617355040931491</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0334470128616178</v>
+        <v>0.03689123267916523</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2905681913.287445</v>
+        <v>3829202630.231863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1482354605372902</v>
+        <v>0.1647879709970988</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03998073247687588</v>
+        <v>0.04558253968443007</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2581127953.917275</v>
+        <v>2537648029.54792</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1383915046880331</v>
+        <v>0.1280401182732519</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0455927746880567</v>
+        <v>0.03370728671125185</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4745700229.018577</v>
+        <v>4621700088.866413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09519025853248773</v>
+        <v>0.06926574246475684</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02630430568057333</v>
+        <v>0.02610300404842947</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2477773669.868526</v>
+        <v>3906039715.123504</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1864543421674538</v>
+        <v>0.128748952608439</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03743511027741332</v>
+        <v>0.02932191727880729</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1761567061.986992</v>
+        <v>1408882500.428086</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06834599097242074</v>
+        <v>0.08210096905122294</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03287059210323633</v>
+        <v>0.04522991635150514</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2105939894.169924</v>
+        <v>1743847037.783163</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1044249719831837</v>
+        <v>0.1018359432048876</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04055262097664578</v>
+        <v>0.04350738189580703</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4999580976.235133</v>
+        <v>3897448836.922558</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1624051482865932</v>
+        <v>0.1287016138471971</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0481854853757844</v>
+        <v>0.03380065236324605</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3705751994.876746</v>
+        <v>3108048043.103003</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1178810875227102</v>
+        <v>0.1301080912992577</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02769455523525732</v>
+        <v>0.02317240696185692</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1184296255.305341</v>
+        <v>1314582127.929768</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1607448126719724</v>
+        <v>0.1579065431866715</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02548571127113087</v>
+        <v>0.02519283628081583</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2032851307.08184</v>
+        <v>2508848363.794552</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1099089920623729</v>
+        <v>0.1258638265222387</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0305742615319922</v>
+        <v>0.02788571328823581</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2118456488.809068</v>
+        <v>2176656687.748938</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08154757144191474</v>
+        <v>0.07598228346485306</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04460371152253756</v>
+        <v>0.03715466758144319</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3487433512.145514</v>
+        <v>3206994431.843024</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1445601826730675</v>
+        <v>0.1390547848457213</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0407716322099879</v>
+        <v>0.05463971035724715</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1366989019.303233</v>
+        <v>1101196636.170726</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1355964271039892</v>
+        <v>0.152372779654313</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04122253630746975</v>
+        <v>0.04906057975650221</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3354461563.74137</v>
+        <v>4042109148.209802</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1279269883758233</v>
+        <v>0.1070222526685109</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0333263949429518</v>
+        <v>0.03760783947536835</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1289601547.032387</v>
+        <v>1025994894.034796</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07615851908614189</v>
+        <v>0.09383384687515334</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02953005464644337</v>
+        <v>0.02375529356038958</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1399500133.17868</v>
+        <v>898742743.4793175</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08215739838879098</v>
+        <v>0.1135283464800509</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03129740078947147</v>
+        <v>0.03108319878050038</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3215692539.818451</v>
+        <v>4069033240.752363</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1196385106028029</v>
+        <v>0.1121511924642566</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0253576863485353</v>
+        <v>0.02211612470782134</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3750672614.720869</v>
+        <v>3887628093.359784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1522558092920023</v>
+        <v>0.106989036557771</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03814327892533596</v>
+        <v>0.04311412429701205</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3727645849.791737</v>
+        <v>5867062392.300654</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1114872434062623</v>
+        <v>0.1437016942612429</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03474520541990486</v>
+        <v>0.04352883222082828</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1649356490.14588</v>
+        <v>1689389498.233889</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09231637717804815</v>
+        <v>0.1373462828849319</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02989646132035216</v>
+        <v>0.03269803778745316</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1111537485.32548</v>
+        <v>969771193.8142916</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0865882426828858</v>
+        <v>0.06926539931675589</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04339668852284477</v>
+        <v>0.03884964784863975</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1815074745.666184</v>
+        <v>1334648371.287201</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1121781632685531</v>
+        <v>0.08866976954499456</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02986658362370832</v>
+        <v>0.03010243357872827</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2924901120.139741</v>
+        <v>2482523457.546809</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1345052915962538</v>
+        <v>0.1429774135052924</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04397801346049635</v>
+        <v>0.05979657279404144</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1210763114.647867</v>
+        <v>1530201815.196711</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08433324050060066</v>
+        <v>0.09303031342970612</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01876267267174529</v>
+        <v>0.01885000846838187</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1285595986.232313</v>
+        <v>1361715793.936423</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08816694931119406</v>
+        <v>0.08003425750825821</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02737440266508533</v>
+        <v>0.04199617921247988</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2319176336.226878</v>
+        <v>3098464404.21781</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1315127630419498</v>
+        <v>0.1764239920455111</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02224889355079352</v>
+        <v>0.02410898135491117</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1955156893.861495</v>
+        <v>1965468659.683844</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06788419861014623</v>
+        <v>0.1096681581684499</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03195226829134014</v>
+        <v>0.03632776728925587</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1511338601.593449</v>
+        <v>1685575355.600276</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08256774198203991</v>
+        <v>0.0914120174915274</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02585952334385876</v>
+        <v>0.03287947387382892</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2205171926.522756</v>
+        <v>1861135206.828483</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1234658586760174</v>
+        <v>0.1259427230335967</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02208450279905364</v>
+        <v>0.0238732260816315</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1669822545.001406</v>
+        <v>1642739775.857876</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1308481582749528</v>
+        <v>0.1519135464350511</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04811401516338541</v>
+        <v>0.05009862495572037</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2129241583.196368</v>
+        <v>2394699629.260629</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1319289095467998</v>
+        <v>0.1357618221991839</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02872703789373484</v>
+        <v>0.03456532665199471</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3658366196.756279</v>
+        <v>3123938598.669548</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08774479150408608</v>
+        <v>0.1062674054777651</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03290881362567481</v>
+        <v>0.0308220404878566</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2291382182.512955</v>
+        <v>3062093638.151237</v>
       </c>
       <c r="F43" t="n">
-        <v>0.176443828405772</v>
+        <v>0.197164981149133</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01926395404338405</v>
+        <v>0.02417979610602373</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2181867633.259123</v>
+        <v>1651630273.079192</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06728632091875053</v>
+        <v>0.0715017173169825</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02655250049580222</v>
+        <v>0.03659221635512872</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1682726087.324189</v>
+        <v>1991623053.853955</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1612091184323361</v>
+        <v>0.1511878714161752</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04942863690615724</v>
+        <v>0.04559122704853214</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3862262499.248992</v>
+        <v>3464245528.784157</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1602744628962255</v>
+        <v>0.1236200068730015</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05740843793882198</v>
+        <v>0.03969937744757502</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4010747073.299709</v>
+        <v>3828000610.835461</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1583188598553866</v>
+        <v>0.1781756060486986</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04409437281340745</v>
+        <v>0.05582456362047331</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4649806727.337084</v>
+        <v>4624870089.125122</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1059824287593694</v>
+        <v>0.08478408884102387</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0348113965843514</v>
+        <v>0.03216973419574508</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1534217574.601583</v>
+        <v>1298373335.058224</v>
       </c>
       <c r="F49" t="n">
-        <v>0.164980995575167</v>
+        <v>0.143011876242863</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04118717645940608</v>
+        <v>0.02707722367479276</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3077624789.031985</v>
+        <v>3771664900.75763</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1095535421708575</v>
+        <v>0.115185831857373</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04330201623376959</v>
+        <v>0.05318002698756674</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1218972077.466395</v>
+        <v>944090555.9297284</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1646461375570308</v>
+        <v>0.1424109208937335</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04749006140121673</v>
+        <v>0.05289789845496951</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4678904890.696483</v>
+        <v>4945678595.695208</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08480716008203899</v>
+        <v>0.1290889233582873</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06102298153130171</v>
+        <v>0.04011028953594076</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2581400430.272104</v>
+        <v>3032116785.939259</v>
       </c>
       <c r="F53" t="n">
-        <v>0.196311758788026</v>
+        <v>0.1859544738167059</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03138598187974808</v>
+        <v>0.02354242321898959</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3189662077.165376</v>
+        <v>4526929147.131404</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1438567751732129</v>
+        <v>0.1615897980239836</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03491767501291162</v>
+        <v>0.05021457238418769</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4733999996.532452</v>
+        <v>4599002755.657776</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1798014287795708</v>
+        <v>0.1727715016449117</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02046927711122148</v>
+        <v>0.02327043115975101</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1253132672.814593</v>
+        <v>1741026289.979129</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1157714789192714</v>
+        <v>0.1029522891817031</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03702905612327253</v>
+        <v>0.04241385465041014</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3069605613.858097</v>
+        <v>3105255215.589813</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1557083335622838</v>
+        <v>0.1742277096794524</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02104669402666246</v>
+        <v>0.02166162792635629</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1555092275.094081</v>
+        <v>1354489440.116369</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1548848093313199</v>
+        <v>0.1390104340746383</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03103964405501768</v>
+        <v>0.02839563077133398</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4721565358.352394</v>
+        <v>4631489657.860642</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1228489573414009</v>
+        <v>0.08365594986114061</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04455862251753219</v>
+        <v>0.03033089606318678</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3097823104.038176</v>
+        <v>2643751148.41464</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1543662612678951</v>
+        <v>0.1293517283386581</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03063242274239861</v>
+        <v>0.03021711983867658</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3056934990.529539</v>
+        <v>2748946771.595074</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1386193160550377</v>
+        <v>0.1792691233590941</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03118532702531934</v>
+        <v>0.02086759268076336</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1607960516.109211</v>
+        <v>1904927447.370904</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1383561905321403</v>
+        <v>0.151738807783677</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0409089396981271</v>
+        <v>0.03216539424371489</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4385591301.660094</v>
+        <v>4802691489.278219</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06944525768029018</v>
+        <v>0.07816187106030227</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03333288199607618</v>
+        <v>0.03009882608502912</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4831357275.13316</v>
+        <v>4191363391.449648</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1553932885378113</v>
+        <v>0.1698765360246331</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02837373263508333</v>
+        <v>0.03265381630362368</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5549569645.763946</v>
+        <v>4325672338.414934</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1680960671275857</v>
+        <v>0.147291697245231</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02549911229810037</v>
+        <v>0.01967360590780045</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4191909164.757913</v>
+        <v>5223110439.823272</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1269699651917442</v>
+        <v>0.1245924805618791</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05026142884588759</v>
+        <v>0.03756174705958011</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3424217741.319008</v>
+        <v>3019147728.747039</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09234817433867688</v>
+        <v>0.07584995259043741</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03959896215288376</v>
+        <v>0.03531553252834217</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3838368700.810448</v>
+        <v>5749277422.294621</v>
       </c>
       <c r="F68" t="n">
-        <v>0.102678481146902</v>
+        <v>0.1282101374862787</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03289044834826709</v>
+        <v>0.04791698964231055</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1892236857.374275</v>
+        <v>2135905955.384702</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1743824089999533</v>
+        <v>0.1585423549240637</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04850686474078632</v>
+        <v>0.03918881632006985</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2993984828.616006</v>
+        <v>2738769966.900509</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07688065423107029</v>
+        <v>0.07015414130849811</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03337296750890309</v>
+        <v>0.04216144741989589</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5239757172.0259</v>
+        <v>5438277243.492229</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1388673051774038</v>
+        <v>0.1779115592077654</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03034512505833677</v>
+        <v>0.02774129859698501</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1922438164.844838</v>
+        <v>1435835517.003958</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07170940112322087</v>
+        <v>0.07354047079350041</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04524931029298847</v>
+        <v>0.03472382755287916</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3512594287.340726</v>
+        <v>2524111563.958391</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1107237531307128</v>
+        <v>0.09610852370155427</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03369380564628884</v>
+        <v>0.03430849982363214</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2429767903.62998</v>
+        <v>3111515479.041913</v>
       </c>
       <c r="F74" t="n">
-        <v>0.12234708037139</v>
+        <v>0.1734205980728703</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0315392741344494</v>
+        <v>0.03149584202541563</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1659222524.913977</v>
+        <v>1588550536.864791</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1081016617840091</v>
+        <v>0.1638219425893356</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0329476721581479</v>
+        <v>0.02470728879986217</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3308016455.635121</v>
+        <v>3969085199.135048</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09014572036489674</v>
+        <v>0.08065145289361703</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02926719447599203</v>
+        <v>0.02105016130538828</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1798548618.917053</v>
+        <v>1668798269.219278</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1694305238511073</v>
+        <v>0.1273524216732786</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0250454590600352</v>
+        <v>0.02804937784573693</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4503581255.65057</v>
+        <v>4300141650.45345</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08746724309273163</v>
+        <v>0.1230324280141708</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03917009304630921</v>
+        <v>0.04739769653190243</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1740607992.236335</v>
+        <v>1744968270.81086</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1645259753707599</v>
+        <v>0.1117049362787034</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02844140150952681</v>
+        <v>0.02721640802306149</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5098059692.975733</v>
+        <v>3893161389.992323</v>
       </c>
       <c r="F80" t="n">
-        <v>0.093445387635102</v>
+        <v>0.07120024089863448</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02539736524500854</v>
+        <v>0.02845962413976488</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4550738614.485253</v>
+        <v>4986546207.282086</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0848549408968734</v>
+        <v>0.1273310880315679</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02921689943716091</v>
+        <v>0.02833689774132985</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5672146862.845822</v>
+        <v>4807028695.82285</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1660362278166612</v>
+        <v>0.1693333914389439</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02722696240499977</v>
+        <v>0.02915584659023571</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1909383211.855526</v>
+        <v>1945914129.249028</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1036195427667072</v>
+        <v>0.1173269762042195</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03019913636081494</v>
+        <v>0.04461154533308563</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2467393651.919437</v>
+        <v>2355341970.102771</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1101112366249938</v>
+        <v>0.1209453690606447</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03398366972073251</v>
+        <v>0.04912597924000377</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2267214587.677338</v>
+        <v>3380255433.300826</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1303186917459866</v>
+        <v>0.119613952738059</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03679407341081041</v>
+        <v>0.03787003911546175</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2352184737.245014</v>
+        <v>1960048562.284003</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1450475179767192</v>
+        <v>0.1592800518939143</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02053069880310698</v>
+        <v>0.02331274974634349</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1110054442.418727</v>
+        <v>1407923058.130685</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1868552632306361</v>
+        <v>0.1679396199357064</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03549882325799594</v>
+        <v>0.04125059142887984</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2533902234.729221</v>
+        <v>2640939915.035211</v>
       </c>
       <c r="F88" t="n">
-        <v>0.168735712526081</v>
+        <v>0.1162647306723516</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03592056569738124</v>
+        <v>0.03786188040406559</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3462355438.762393</v>
+        <v>2829589603.671655</v>
       </c>
       <c r="F89" t="n">
-        <v>0.14519091072569</v>
+        <v>0.155124256883376</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02730793926294403</v>
+        <v>0.02697886024693773</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1726683062.832228</v>
+        <v>1436571864.051275</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286181732326525</v>
+        <v>0.1183982953230071</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0524461679031997</v>
+        <v>0.05109502010428481</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1722626043.716921</v>
+        <v>1430370459.000314</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1835563806474975</v>
+        <v>0.1923947809269954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05253730204520917</v>
+        <v>0.03803372780478777</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2273330644.925097</v>
+        <v>2666694004.987286</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08283578411845995</v>
+        <v>0.0945299283152662</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03595549869183403</v>
+        <v>0.0396582320298644</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4012378883.707715</v>
+        <v>4685988693.019297</v>
       </c>
       <c r="F93" t="n">
-        <v>0.123575331807258</v>
+        <v>0.09482413574827735</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05231031682388621</v>
+        <v>0.04767210342442794</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2442301102.120229</v>
+        <v>2448098062.860043</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1513824887375198</v>
+        <v>0.1387413976351903</v>
       </c>
       <c r="G94" t="n">
-        <v>0.027962671414247</v>
+        <v>0.04154720600037502</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2442009407.017723</v>
+        <v>2095658249.215405</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1329710700899257</v>
+        <v>0.1060354180883671</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03670518564734436</v>
+        <v>0.04001946297487689</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1736535550.882168</v>
+        <v>2282385475.60605</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1101114088340675</v>
+        <v>0.1170106326292318</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03072523000537349</v>
+        <v>0.04388759089620463</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5115362938.468846</v>
+        <v>3652670619.971391</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1746720108944626</v>
+        <v>0.1538384536283551</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0219931210337901</v>
+        <v>0.0204372571095292</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3699874373.133815</v>
+        <v>3588551783.331655</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1042460092981182</v>
+        <v>0.08820749970557616</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02984926808037302</v>
+        <v>0.03280972417651292</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3068546981.474224</v>
+        <v>2313761126.091661</v>
       </c>
       <c r="F99" t="n">
-        <v>0.105458466424175</v>
+        <v>0.1163902654918752</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02178438821331181</v>
+        <v>0.03308738851426916</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4728658280.024848</v>
+        <v>4594664794.787398</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1429420476243165</v>
+        <v>0.171811187916867</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02712718371353815</v>
+        <v>0.02702680922915694</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3323142280.197676</v>
+        <v>3108014791.126647</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2084144411540046</v>
+        <v>0.191390377216371</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04300986869027647</v>
+        <v>0.03940789495697874</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_314.xlsx
+++ b/output/fit_clients/fit_round_314.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2299491276.148105</v>
+        <v>1764866871.007424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09252853953346163</v>
+        <v>0.09589521580115924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03953281587307365</v>
+        <v>0.02884907060959907</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1591639843.970962</v>
+        <v>2042425847.391529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1455725174152872</v>
+        <v>0.1284723066261804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0365559455475835</v>
+        <v>0.031641658384353</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3785692001.530878</v>
+        <v>4161689328.77446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1356280829788759</v>
+        <v>0.1632197490455357</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03287776140925771</v>
+        <v>0.02925972157807572</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>164</v>
+      </c>
+      <c r="J4" t="n">
+        <v>314</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3606760011.208869</v>
+        <v>2807459330.683942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09446889355592483</v>
+        <v>0.0909337969091159</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04383633406171539</v>
+        <v>0.03603932117177586</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2476698797.837715</v>
+        <v>1732352175.803175</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1268682711162649</v>
+        <v>0.1050161054442792</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05270398299495586</v>
+        <v>0.04658904893123694</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2411238905.741305</v>
+        <v>2299110888.703087</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09493527483377041</v>
+        <v>0.08812958616080831</v>
       </c>
       <c r="G7" t="n">
-        <v>0.032509887330411</v>
+        <v>0.03458359115671335</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2960675466.349453</v>
+        <v>3849421755.954131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2215013071517674</v>
+        <v>0.2110047363310237</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02446298649014587</v>
+        <v>0.02828853783065862</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>314</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1392450829.649791</v>
+        <v>2315118848.772471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1766241590602817</v>
+        <v>0.1934559207686024</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02602479884862325</v>
+        <v>0.03401523859980923</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5554520126.891264</v>
+        <v>5238282415.986001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1617355040931491</v>
+        <v>0.1990236630347322</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03689123267916523</v>
+        <v>0.03733750088177238</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>275</v>
+      </c>
+      <c r="J10" t="n">
+        <v>314</v>
+      </c>
+      <c r="K10" t="n">
+        <v>79.20819918973476</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3829202630.231863</v>
+        <v>3612033424.629953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1647879709970988</v>
+        <v>0.181559327892718</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04558253968443007</v>
+        <v>0.04017112200157639</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>125</v>
+      </c>
+      <c r="J11" t="n">
+        <v>314</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2537648029.54792</v>
+        <v>2392360845.673764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1280401182732519</v>
+        <v>0.1229025921960986</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03370728671125185</v>
+        <v>0.03708695526463207</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4621700088.866413</v>
+        <v>5202790139.408542</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06926574246475684</v>
+        <v>0.08837751156676053</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02610300404842947</v>
+        <v>0.02480349212261089</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>162</v>
+      </c>
+      <c r="J13" t="n">
+        <v>314</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3906039715.123504</v>
+        <v>3299202006.655701</v>
       </c>
       <c r="F14" t="n">
-        <v>0.128748952608439</v>
+        <v>0.1443444127311486</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02932191727880729</v>
+        <v>0.03716509289238912</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +958,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1408882500.428086</v>
+        <v>1409200210.631538</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08210096905122294</v>
+        <v>0.07438657646339235</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04522991635150514</v>
+        <v>0.02995940358162891</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1743847037.783163</v>
+        <v>1937256152.936561</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1018359432048876</v>
+        <v>0.07015133095475701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04350738189580703</v>
+        <v>0.0433220262463728</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3897448836.922558</v>
+        <v>3804458303.479987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1287016138471971</v>
+        <v>0.1115816392660393</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03380065236324605</v>
+        <v>0.03851039415937427</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>148</v>
+      </c>
+      <c r="J17" t="n">
+        <v>313</v>
+      </c>
+      <c r="K17" t="n">
+        <v>75.49092291892126</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3108048043.103003</v>
+        <v>2523444993.467349</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1301080912992577</v>
+        <v>0.1358062861190966</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02317240696185692</v>
+        <v>0.030584206877553</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1314582127.929768</v>
+        <v>1179990466.653667</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1579065431866715</v>
+        <v>0.1851683998605206</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02519283628081583</v>
+        <v>0.02354172710506482</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2508848363.794552</v>
+        <v>2764797343.491124</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1258638265222387</v>
+        <v>0.1016449678901148</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02788571328823581</v>
+        <v>0.02025453542168571</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2176656687.748938</v>
+        <v>2564414545.7319</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07598228346485306</v>
+        <v>0.07074255820517535</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03715466758144319</v>
+        <v>0.04559645072198888</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3206994431.843024</v>
+        <v>3627871541.095565</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1390547848457213</v>
+        <v>0.106578780661475</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05463971035724715</v>
+        <v>0.05356736701671079</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>84</v>
+      </c>
+      <c r="J22" t="n">
+        <v>314</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1101196636.170726</v>
+        <v>1190931866.461601</v>
       </c>
       <c r="F23" t="n">
-        <v>0.152372779654313</v>
+        <v>0.1433341163863053</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04906057975650221</v>
+        <v>0.04598978663046033</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4042109148.209802</v>
+        <v>3665434040.316764</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1070222526685109</v>
+        <v>0.1034139317657746</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03760783947536835</v>
+        <v>0.02399323121253674</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>93</v>
+      </c>
+      <c r="J24" t="n">
+        <v>314</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1025994894.034796</v>
+        <v>1192599845.151751</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09383384687515334</v>
+        <v>0.1068527818030408</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02375529356038958</v>
+        <v>0.01989679395178628</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>898742743.4793175</v>
+        <v>1309055383.158399</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1135283464800509</v>
+        <v>0.08301294643168583</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03108319878050038</v>
+        <v>0.02855240620743631</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4069033240.752363</v>
+        <v>4348057902.396717</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1121511924642566</v>
+        <v>0.122321154697242</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02211612470782134</v>
+        <v>0.02635176160893336</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J27" t="n">
+        <v>314</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3887628093.359784</v>
+        <v>3414203137.303356</v>
       </c>
       <c r="F28" t="n">
-        <v>0.106989036557771</v>
+        <v>0.1289546400952242</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04311412429701205</v>
+        <v>0.04358761217621635</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1444,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5867062392.300654</v>
+        <v>5091465308.327747</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1437016942612429</v>
+        <v>0.1501425538900519</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04352883222082828</v>
+        <v>0.04042280531970463</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>292</v>
+      </c>
+      <c r="J29" t="n">
+        <v>314</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1485,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1689389498.233889</v>
+        <v>2330686159.556882</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1373462828849319</v>
+        <v>0.1171217481731392</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03269803778745316</v>
+        <v>0.03858269646040152</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1514,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>969771193.8142916</v>
+        <v>1132668631.874015</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06926539931675589</v>
+        <v>0.09018277484705008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03884964784863975</v>
+        <v>0.04102277774720944</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1549,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1334648371.287201</v>
+        <v>1728355368.688321</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08866976954499456</v>
+        <v>0.08057131841924377</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03010243357872827</v>
+        <v>0.02873129448744543</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1584,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2482523457.546809</v>
+        <v>2587570776.664927</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1429774135052924</v>
+        <v>0.1754239810267471</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05979657279404144</v>
+        <v>0.0430501829568734</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1619,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1530201815.196711</v>
+        <v>959504409.5281042</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09303031342970612</v>
+        <v>0.08185386816421091</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01885000846838187</v>
+        <v>0.02449686467978852</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1654,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1361715793.936423</v>
+        <v>865847596.6731528</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08003425750825821</v>
+        <v>0.1040442704462446</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04199617921247988</v>
+        <v>0.02803437691821753</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1689,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3098464404.21781</v>
+        <v>2899912991.585789</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1764239920455111</v>
+        <v>0.1211836038402485</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02410898135491117</v>
+        <v>0.02146159365305074</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1724,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1965468659.683844</v>
+        <v>1792067048.016182</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1096681581684499</v>
+        <v>0.1037538617809647</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03632776728925587</v>
+        <v>0.02918556491901953</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1759,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1685575355.600276</v>
+        <v>1591332977.374165</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0914120174915274</v>
+        <v>0.07869951783691821</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03287947387382892</v>
+        <v>0.0358195590129362</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1794,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1861135206.828483</v>
+        <v>1677106761.852601</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1259427230335967</v>
+        <v>0.1210470267424067</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0238732260816315</v>
+        <v>0.02610436238220831</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1829,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1642739775.857876</v>
+        <v>1273969357.129436</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1519135464350511</v>
+        <v>0.151980100724227</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05009862495572037</v>
+        <v>0.04836235711341066</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1864,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2394699629.260629</v>
+        <v>2443415904.901664</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1357618221991839</v>
+        <v>0.1084571905559296</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03456532665199471</v>
+        <v>0.04356934898827165</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1905,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3123938598.669548</v>
+        <v>2845847227.826021</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1062674054777651</v>
+        <v>0.09324081594019823</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0308220404878566</v>
+        <v>0.04436370905498001</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>129</v>
+      </c>
+      <c r="J42" t="n">
+        <v>310</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1934,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3062093638.151237</v>
+        <v>2715670130.10401</v>
       </c>
       <c r="F43" t="n">
-        <v>0.197164981149133</v>
+        <v>0.1937392416851556</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02417979610602373</v>
+        <v>0.0209292389751002</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1975,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1651630273.079192</v>
+        <v>1956917619.527551</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0715017173169825</v>
+        <v>0.0956064639167544</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03659221635512872</v>
+        <v>0.03326291684717898</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2010,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1991623053.853955</v>
+        <v>1756841099.492321</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1511878714161752</v>
+        <v>0.1216950117141709</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04559122704853214</v>
+        <v>0.03679879072884346</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2039,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3464245528.784157</v>
+        <v>3561723951.719944</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1236200068730015</v>
+        <v>0.1548749405262622</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03969937744757502</v>
+        <v>0.04939059787874281</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>188</v>
+      </c>
+      <c r="J46" t="n">
+        <v>314</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2074,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3828000610.835461</v>
+        <v>4626273083.005159</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1781756060486986</v>
+        <v>0.1776779168162602</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05582456362047331</v>
+        <v>0.04351298886629985</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>140</v>
+      </c>
+      <c r="J47" t="n">
+        <v>313</v>
+      </c>
+      <c r="K47" t="n">
+        <v>66.80136781361644</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2111,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4624870089.125122</v>
+        <v>3356945944.101815</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08478408884102387</v>
+        <v>0.09297738470113201</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03216973419574508</v>
+        <v>0.02456328395526097</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>158</v>
+      </c>
+      <c r="J48" t="n">
+        <v>313</v>
+      </c>
+      <c r="K48" t="n">
+        <v>67.38770792312769</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2148,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1298373335.058224</v>
+        <v>1768481786.313369</v>
       </c>
       <c r="F49" t="n">
-        <v>0.143011876242863</v>
+        <v>0.1209024892754954</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02707722367479276</v>
+        <v>0.02878355685362433</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2183,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3771664900.75763</v>
+        <v>3162485131.490569</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115185831857373</v>
+        <v>0.1656430297054791</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05318002698756674</v>
+        <v>0.05233610018381416</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>100</v>
+      </c>
+      <c r="J50" t="n">
+        <v>313</v>
+      </c>
+      <c r="K50" t="n">
+        <v>63.19286474403208</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>944090555.9297284</v>
+        <v>1119881193.711041</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1424109208937335</v>
+        <v>0.1243566431342822</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05289789845496951</v>
+        <v>0.04642305706260358</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2261,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4945678595.695208</v>
+        <v>4036920249.528167</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290889233582873</v>
+        <v>0.1309864904342274</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04011028953594076</v>
+        <v>0.05646837997866094</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>191</v>
+      </c>
+      <c r="J52" t="n">
+        <v>314</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2296,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3032116785.939259</v>
+        <v>2778224919.283846</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1859544738167059</v>
+        <v>0.1458275454331119</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02354242321898959</v>
+        <v>0.0258591480081264</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>313</v>
+      </c>
+      <c r="K53" t="n">
+        <v>49.47315911147589</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4526929147.131404</v>
+        <v>4293467887.700354</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1615897980239836</v>
+        <v>0.1370439193493027</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05021457238418769</v>
+        <v>0.03208469380191342</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>165</v>
+      </c>
+      <c r="J54" t="n">
+        <v>314</v>
+      </c>
+      <c r="K54" t="n">
+        <v>79.57331899574628</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2370,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4599002755.657776</v>
+        <v>3406821788.157265</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1727715016449117</v>
+        <v>0.147664539906041</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02327043115975101</v>
+        <v>0.02156099948882839</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>145</v>
+      </c>
+      <c r="J55" t="n">
+        <v>312</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1741026289.979129</v>
+        <v>1519647299.669836</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1029522891817031</v>
+        <v>0.1174465592983078</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04241385465041014</v>
+        <v>0.05728032504801106</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2440,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3105255215.589813</v>
+        <v>3423706275.538141</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1742277096794524</v>
+        <v>0.1769221872109502</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02166162792635629</v>
+        <v>0.02721452316662359</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>129</v>
+      </c>
+      <c r="J57" t="n">
+        <v>312</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2475,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1354489440.116369</v>
+        <v>1710461489.064187</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1390104340746383</v>
+        <v>0.1702701436650991</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02839563077133398</v>
+        <v>0.03674415018818182</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4631489657.860642</v>
+        <v>5159377871.724583</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08365594986114061</v>
+        <v>0.1179937468771988</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03033089606318678</v>
+        <v>0.03594552388889081</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>152</v>
+      </c>
+      <c r="J59" t="n">
+        <v>313</v>
+      </c>
+      <c r="K59" t="n">
+        <v>72.89045675435922</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2643751148.41464</v>
+        <v>3123622289.446445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1293517283386581</v>
+        <v>0.1635151105408467</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03021711983867658</v>
+        <v>0.02645014227727041</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>54</v>
+      </c>
+      <c r="J60" t="n">
+        <v>310</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2576,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2748946771.595074</v>
+        <v>3224149149.380925</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1792691233590941</v>
+        <v>0.1294820228202302</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02086759268076336</v>
+        <v>0.0235313929061707</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="n">
+        <v>78.29232883531887</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1904927447.370904</v>
+        <v>1880951327.336075</v>
       </c>
       <c r="F62" t="n">
-        <v>0.151738807783677</v>
+        <v>0.1292253622980154</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03216539424371489</v>
+        <v>0.04103713341449633</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2654,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4802691489.278219</v>
+        <v>3690537733.871375</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07816187106030227</v>
+        <v>0.0654229861190555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03009882608502912</v>
+        <v>0.03153824341268421</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>153</v>
+      </c>
+      <c r="J63" t="n">
+        <v>313</v>
+      </c>
+      <c r="K63" t="n">
+        <v>74.03972028558647</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4191363391.449648</v>
+        <v>5530581102.323462</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1698765360246331</v>
+        <v>0.1740272688511829</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03265381630362368</v>
+        <v>0.0356822161132998</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>154</v>
+      </c>
+      <c r="J64" t="n">
+        <v>314</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4325672338.414934</v>
+        <v>4262805755.880286</v>
       </c>
       <c r="F65" t="n">
-        <v>0.147291697245231</v>
+        <v>0.1564061546270188</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01967360590780045</v>
+        <v>0.01962761892701782</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>248</v>
+      </c>
+      <c r="J65" t="n">
+        <v>313</v>
+      </c>
+      <c r="K65" t="n">
+        <v>77.8035760365857</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5223110439.823272</v>
+        <v>4546159090.599019</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1245924805618791</v>
+        <v>0.1083612329897908</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03756174705958011</v>
+        <v>0.04730331186408663</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>155</v>
+      </c>
+      <c r="J66" t="n">
+        <v>313</v>
+      </c>
+      <c r="K66" t="n">
+        <v>71.50202788070175</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3019147728.747039</v>
+        <v>3432381714.290767</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07584995259043741</v>
+        <v>0.08830108636412992</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03531553252834217</v>
+        <v>0.03378421603613664</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5749277422.294621</v>
+        <v>5058420812.403481</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1282101374862787</v>
+        <v>0.1535444748251215</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04791698964231055</v>
+        <v>0.03936257810529988</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>169</v>
+      </c>
+      <c r="J68" t="n">
+        <v>313</v>
+      </c>
+      <c r="K68" t="n">
+        <v>76.97610707000595</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2135905955.384702</v>
+        <v>2422177655.472457</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585423549240637</v>
+        <v>0.1700850349818661</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03918881632006985</v>
+        <v>0.04880384270793169</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2738769966.900509</v>
+        <v>3617993957.997547</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07015414130849811</v>
+        <v>0.08011423865324953</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04216144741989589</v>
+        <v>0.04501165626808938</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="n">
+        <v>76.26521038486867</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5438277243.492229</v>
+        <v>3628178867.778613</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1779115592077654</v>
+        <v>0.1817717279907788</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02774129859698501</v>
+        <v>0.02943539887127877</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>233</v>
+      </c>
+      <c r="J71" t="n">
+        <v>313</v>
+      </c>
+      <c r="K71" t="n">
+        <v>75.47086415279993</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1435835517.003958</v>
+        <v>1508641558.942988</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07354047079350041</v>
+        <v>0.09397547331808573</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03472382755287916</v>
+        <v>0.04887837108278464</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2524111563.958391</v>
+        <v>2382649466.61884</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09610852370155427</v>
+        <v>0.0726641879192583</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03430849982363214</v>
+        <v>0.03452756820757306</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3111515479.041913</v>
+        <v>2986420184.686129</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1734205980728703</v>
+        <v>0.1133410792179518</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03149584202541563</v>
+        <v>0.03463814192189574</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>82</v>
+      </c>
+      <c r="J74" t="n">
+        <v>311</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1588550536.864791</v>
+        <v>2402708433.100245</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1638219425893356</v>
+        <v>0.1136244732893683</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02470728879986217</v>
+        <v>0.02431286391935049</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3969085199.135048</v>
+        <v>3276108229.089393</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08065145289361703</v>
+        <v>0.08048614238234564</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02105016130538828</v>
+        <v>0.03202975048971921</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>148</v>
+      </c>
+      <c r="J76" t="n">
+        <v>313</v>
+      </c>
+      <c r="K76" t="n">
+        <v>58.40867163660881</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1668798269.219278</v>
+        <v>1850650496.85807</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1273524216732786</v>
+        <v>0.1132729009212298</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02804937784573693</v>
+        <v>0.02749927075629521</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4300141650.45345</v>
+        <v>3648321634.350088</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1230324280141708</v>
+        <v>0.130657144480845</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04739769653190243</v>
+        <v>0.0538974591000744</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>155</v>
+      </c>
+      <c r="J78" t="n">
+        <v>314</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1744968270.81086</v>
+        <v>1791160402.555433</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1117049362787034</v>
+        <v>0.1658126747667505</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02721640802306149</v>
+        <v>0.0254746562955721</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3893161389.992323</v>
+        <v>4631861357.212428</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07120024089863448</v>
+        <v>0.09366338922564217</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02845962413976488</v>
+        <v>0.02486983706735553</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>153</v>
+      </c>
+      <c r="J80" t="n">
+        <v>314</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4986546207.282086</v>
+        <v>4159752309.910137</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1273310880315679</v>
+        <v>0.1153544267907791</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02833689774132985</v>
+        <v>0.02787495889851418</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>145</v>
+      </c>
+      <c r="J81" t="n">
+        <v>313</v>
+      </c>
+      <c r="K81" t="n">
+        <v>69.98902460356493</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4807028695.82285</v>
+        <v>3856916423.957325</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1693333914389439</v>
+        <v>0.1994535546453592</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02915584659023571</v>
+        <v>0.02723255999128965</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>227</v>
+      </c>
+      <c r="J82" t="n">
+        <v>314</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1945914129.249028</v>
+        <v>2345630761.412327</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1173269762042195</v>
+        <v>0.1453855823725922</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04461154533308563</v>
+        <v>0.03071820100564093</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2355341970.102771</v>
+        <v>1763112136.520802</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1209453690606447</v>
+        <v>0.0992316744005958</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04912597924000377</v>
+        <v>0.05168583260506784</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3380255433.300826</v>
+        <v>3413342194.972169</v>
       </c>
       <c r="F85" t="n">
-        <v>0.119613952738059</v>
+        <v>0.1585966119116011</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03787003911546175</v>
+        <v>0.04191094100436409</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>41</v>
+      </c>
+      <c r="J85" t="n">
+        <v>311</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1960048562.284003</v>
+        <v>1743696506.054177</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1592800518939143</v>
+        <v>0.1232524715419712</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02331274974634349</v>
+        <v>0.02017409849823931</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1407923058.130685</v>
+        <v>1503157380.764101</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1679396199357064</v>
+        <v>0.1611226400901653</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04125059142887984</v>
+        <v>0.03565221738893005</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2640939915.035211</v>
+        <v>2715786959.752448</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1162647306723516</v>
+        <v>0.1463251870437486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03786188040406559</v>
+        <v>0.03501609466795315</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2829589603.671655</v>
+        <v>3340006715.610999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.155124256883376</v>
+        <v>0.115540727050306</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02697886024693773</v>
+        <v>0.02758796778353686</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>23</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="n">
+        <v>83.0762256322236</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1436571864.051275</v>
+        <v>1346056752.372346</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1183982953230071</v>
+        <v>0.1048973915221642</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05109502010428481</v>
+        <v>0.04649132603452919</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1430370459.000314</v>
+        <v>1461648396.067206</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1923947809269954</v>
+        <v>0.1532700082430795</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03803372780478777</v>
+        <v>0.04094439128985971</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2666694004.987286</v>
+        <v>2878745553.972346</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0945299283152662</v>
+        <v>0.1063995845506645</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0396582320298644</v>
+        <v>0.04207770613686115</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4685988693.019297</v>
+        <v>3472222705.459652</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09482413574827735</v>
+        <v>0.1153147774550667</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04767210342442794</v>
+        <v>0.04188499271940652</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>140</v>
+      </c>
+      <c r="J93" t="n">
+        <v>314</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2448098062.860043</v>
+        <v>2077326822.578768</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1387413976351903</v>
+        <v>0.117746041621583</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04154720600037502</v>
+        <v>0.04075866885536808</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2095658249.215405</v>
+        <v>2792205988.911143</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1060354180883671</v>
+        <v>0.1226009125020132</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04001946297487689</v>
+        <v>0.03912130333936776</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2282385475.60605</v>
+        <v>2336141922.354719</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1170106326292318</v>
+        <v>0.112176730120684</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04388759089620463</v>
+        <v>0.04581239952953469</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3652670619.971391</v>
+        <v>3318420746.211628</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1538384536283551</v>
+        <v>0.1657966471974442</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0204372571095292</v>
+        <v>0.02411091576827382</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>159</v>
+      </c>
+      <c r="J97" t="n">
+        <v>313</v>
+      </c>
+      <c r="K97" t="n">
+        <v>64.60319693130464</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3588551783.331655</v>
+        <v>3155629613.86594</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08820749970557616</v>
+        <v>0.1145151805605216</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03280972417651292</v>
+        <v>0.02920479858651308</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>77</v>
+      </c>
+      <c r="J98" t="n">
+        <v>312</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2313761126.091661</v>
+        <v>2719286463.693715</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1163902654918752</v>
+        <v>0.1164829621173522</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03308738851426916</v>
+        <v>0.02221112340129803</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4594664794.787398</v>
+        <v>3951752910.30004</v>
       </c>
       <c r="F100" t="n">
-        <v>0.171811187916867</v>
+        <v>0.1318866476733609</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02702680922915694</v>
+        <v>0.02605601589846256</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>137</v>
+      </c>
+      <c r="J100" t="n">
+        <v>314</v>
+      </c>
+      <c r="K100" t="n">
+        <v>79.7447190678153</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3108014791.126647</v>
+        <v>2705001748.916637</v>
       </c>
       <c r="F101" t="n">
-        <v>0.191390377216371</v>
+        <v>0.2005591261572991</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03940789495697874</v>
+        <v>0.04698471177552989</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
